--- a/DIEMSE to db.xlsx
+++ b/DIEMSE to db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0AC57-6441-48C0-A393-9D2820EF3C3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8B60A-EE63-4095-8B59-D3CAF5451414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="4" xr2:uid="{37749BDB-DA12-497E-B3B5-A0FB37BA05F4}"/>
   </bookViews>
@@ -4478,7 +4478,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4552,6 +4552,10 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4570,10 +4574,7 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5200,7 +5201,7 @@
   <dimension ref="A1:K376"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5886,7 +5887,7 @@
       <c r="J3" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="38" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -5921,7 +5922,7 @@
       <c r="J4" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -5954,7 +5955,7 @@
       <c r="J5" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -5987,7 +5988,7 @@
       <c r="J6" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -6020,7 +6021,7 @@
       <c r="J7" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -6053,7 +6054,7 @@
       <c r="J8" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -6086,7 +6087,7 @@
       <c r="J9" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="102.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -6189,7 +6190,7 @@
       <c r="J12" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="35" t="s">
         <v>889</v>
       </c>
     </row>
@@ -6224,7 +6225,7 @@
       <c r="J13" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -6257,7 +6258,7 @@
       <c r="J14" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -6290,7 +6291,7 @@
       <c r="J15" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -6323,7 +6324,7 @@
       <c r="J16" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -29287,8 +29288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF4232-7107-484C-B56C-5B13CEF154D2}">
   <dimension ref="A1:Q309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30120,7 +30121,7 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="33" t="s">
         <v>632</v>
       </c>
       <c r="I19" s="10"/>
@@ -30163,7 +30164,7 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="33" t="s">
         <v>633</v>
       </c>
       <c r="I20" s="10">
@@ -30208,7 +30209,7 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="33" t="s">
         <v>886</v>
       </c>
       <c r="I21" s="10"/>
@@ -31160,7 +31161,7 @@
       <c r="G43" s="2">
         <v>0</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="33" t="s">
         <v>653</v>
       </c>
       <c r="I43" s="10">
@@ -31205,7 +31206,7 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="33" t="s">
         <v>654</v>
       </c>
       <c r="I44" s="10">
@@ -31250,7 +31251,7 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="33" t="s">
         <v>655</v>
       </c>
       <c r="I45" s="10"/>
@@ -31293,7 +31294,7 @@
       <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="33" t="s">
         <v>656</v>
       </c>
       <c r="I46" s="10"/>
@@ -31336,7 +31337,7 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="33" t="s">
         <v>657</v>
       </c>
       <c r="I47" s="10">
@@ -32749,7 +32750,7 @@
         <v>991</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" s="40" t="s">
+      <c r="O79" s="34" t="s">
         <v>1261</v>
       </c>
       <c r="P79" s="2" t="s">
@@ -32796,7 +32797,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="40" t="s">
+      <c r="O80" s="34" t="s">
         <v>1261</v>
       </c>
       <c r="P80" s="2" t="s">
@@ -32841,7 +32842,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="40" t="s">
+      <c r="O81" s="34" t="s">
         <v>1261</v>
       </c>
       <c r="P81" s="2" t="s">
@@ -38548,9 +38549,9 @@
         <v>907</v>
       </c>
       <c r="G207" s="2">
-        <v>0</v>
-      </c>
-      <c r="H207" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H207" s="41" t="s">
         <v>798</v>
       </c>
       <c r="I207" s="10">
@@ -38638,7 +38639,7 @@
       <c r="G209" s="2">
         <v>0</v>
       </c>
-      <c r="H209" s="39" t="s">
+      <c r="H209" s="33" t="s">
         <v>886</v>
       </c>
       <c r="I209" s="10"/>
@@ -38681,7 +38682,7 @@
       <c r="G210" s="2">
         <v>0</v>
       </c>
-      <c r="H210" s="39" t="s">
+      <c r="H210" s="33" t="s">
         <v>800</v>
       </c>
       <c r="I210" s="10">
@@ -38726,7 +38727,7 @@
       <c r="G211" s="2">
         <v>0</v>
       </c>
-      <c r="H211" s="39" t="s">
+      <c r="H211" s="33" t="s">
         <v>801</v>
       </c>
       <c r="I211" s="10"/>

--- a/DIEMSE to db.xlsx
+++ b/DIEMSE to db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8B60A-EE63-4095-8B59-D3CAF5451414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415A11A-F7F4-45AA-BBBF-51014A4B229A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="4" xr2:uid="{37749BDB-DA12-497E-B3B5-A0FB37BA05F4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17041" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17041" uniqueCount="1264">
   <si>
     <t>Nombre de la Entidad</t>
   </si>
@@ -3856,6 +3856,9 @@
   </si>
   <si>
     <t>Nombre del atributo</t>
+  </si>
+  <si>
+    <t>D_DEC_TCIOPMO1(003)</t>
   </si>
 </sst>
 </file>
@@ -4556,6 +4559,7 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4574,7 +4578,6 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5887,7 +5890,7 @@
       <c r="J3" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -5922,7 +5925,7 @@
       <c r="J4" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -5955,7 +5958,7 @@
       <c r="J5" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -5988,7 +5991,7 @@
       <c r="J6" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -6021,7 +6024,7 @@
       <c r="J7" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -6054,7 +6057,7 @@
       <c r="J8" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K8" s="39"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -6087,7 +6090,7 @@
       <c r="J9" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="102.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -6190,7 +6193,7 @@
       <c r="J12" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="36" t="s">
         <v>889</v>
       </c>
     </row>
@@ -6225,7 +6228,7 @@
       <c r="J13" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -6258,7 +6261,7 @@
       <c r="J14" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -6291,7 +6294,7 @@
       <c r="J15" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -6324,7 +6327,7 @@
       <c r="J16" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -29288,8 +29291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF4232-7107-484C-B56C-5B13CEF154D2}">
   <dimension ref="A1:Q309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79:O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32798,7 +32801,7 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="34" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>995</v>
@@ -32843,7 +32846,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="34" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>997</v>
@@ -38551,7 +38554,7 @@
       <c r="G207" s="2">
         <v>1</v>
       </c>
-      <c r="H207" s="41" t="s">
+      <c r="H207" s="35" t="s">
         <v>798</v>
       </c>
       <c r="I207" s="10">

--- a/DIEMSE to db.xlsx
+++ b/DIEMSE to db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\28052024\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415A11A-F7F4-45AA-BBBF-51014A4B229A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B219C-CFE3-44C5-A846-341E1600DD75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="4" xr2:uid="{37749BDB-DA12-497E-B3B5-A0FB37BA05F4}"/>
   </bookViews>
@@ -29291,8 +29291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF4232-7107-484C-B56C-5B13CEF154D2}">
   <dimension ref="A1:Q309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79:O81"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M229" sqref="M229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39376,7 +39376,7 @@
       </c>
       <c r="L225" s="11"/>
       <c r="M225" s="2" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="9"/>

--- a/DIEMSE to db.xlsx
+++ b/DIEMSE to db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\28052024\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\28052024\archivos_integracion\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B219C-CFE3-44C5-A846-341E1600DD75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF69D9C-25EF-46CA-B0CB-5F0D82032CF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="4" xr2:uid="{37749BDB-DA12-497E-B3B5-A0FB37BA05F4}"/>
   </bookViews>
@@ -4481,7 +4481,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4577,6 +4577,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -22481,8 +22484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1CEA37-802E-481C-BEE1-E2710E02EE1D}">
   <dimension ref="A1:F376"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29291,8 +29294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF4232-7107-484C-B56C-5B13CEF154D2}">
   <dimension ref="A1:Q309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M229" sqref="M229"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38816,7 +38819,7 @@
       <c r="G213" s="15">
         <v>0</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="H213" s="13" t="s">
         <v>803</v>
       </c>
       <c r="I213" s="10">
@@ -38825,8 +38828,8 @@
       <c r="J213" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K213" s="11">
-        <v>1</v>
+      <c r="K213" s="42">
+        <v>5</v>
       </c>
       <c r="L213" s="11"/>
       <c r="M213" s="2"/>

--- a/DIEMSE to db.xlsx
+++ b/DIEMSE to db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_integracion\27052023\archivos_integracion\28052024\archivos_integracion\archivos_integracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temas\Informativas\Documentos Digitales\POL 5611\Insumos XML-JSON\Esquemas JSON\IVAN\Diccionario Esquemas\Integración\archivos_integracion\29052024\archivos_integracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF69D9C-25EF-46CA-B0CB-5F0D82032CF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D3F343-29F7-46C8-9200-C47E8614F6EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="4" xr2:uid="{37749BDB-DA12-497E-B3B5-A0FB37BA05F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" firstSheet="1" activeTab="4" xr2:uid="{37749BDB-DA12-497E-B3B5-A0FB37BA05F4}"/>
   </bookViews>
   <sheets>
     <sheet name="TablasUnicas" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17041" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17417" uniqueCount="1264">
   <si>
     <t>Nombre de la Entidad</t>
   </si>
@@ -4560,6 +4560,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4577,9 +4580,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -5206,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K376"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5893,7 +5893,7 @@
       <c r="J3" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="40" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -5928,7 +5928,7 @@
       <c r="J4" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -5961,7 +5961,7 @@
       <c r="J5" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -5994,7 +5994,7 @@
       <c r="J6" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -6027,7 +6027,7 @@
       <c r="J7" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -6060,7 +6060,7 @@
       <c r="J8" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -6093,7 +6093,7 @@
       <c r="J9" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="102.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -6196,7 +6196,7 @@
       <c r="J12" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="37" t="s">
         <v>889</v>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       <c r="J13" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -6264,7 +6264,7 @@
       <c r="J14" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -6297,7 +6297,7 @@
       <c r="J15" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -6330,7 +6330,7 @@
       <c r="J16" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -18260,8 +18260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B28770-67CD-4D8D-A777-B2B5117CCC97}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22485,7 +22485,7 @@
   <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29294,8 +29294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF4232-7107-484C-B56C-5B13CEF154D2}">
   <dimension ref="A1:Q309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38244,7 +38244,7 @@
       <c r="G200" s="2">
         <v>1</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="H200" s="35" t="s">
         <v>793</v>
       </c>
       <c r="I200" s="10">
@@ -38828,7 +38828,7 @@
       <c r="J213" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K213" s="42">
+      <c r="K213" s="36">
         <v>5</v>
       </c>
       <c r="L213" s="11"/>
@@ -43192,4152 +43192,5281 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888F4A9F-A37A-46D3-A007-E53339371E0C}">
-  <dimension ref="A1:C376"/>
+  <dimension ref="A1:D376"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B187" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="D79" s="13" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>2</v>
+        <v>339</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="D123" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="D125" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="D126" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="D127" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="D128" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="D129" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="D133" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="D134" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="D137" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="D139" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="D142" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="D146" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="D147" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="D148" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="D149" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="D154" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="D155" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B160" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="D160" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B162" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B164" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="D164" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B165" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B166" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="D166" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B167" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B168" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="D168" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="D170" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B171" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="D171" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="D172" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B173" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="D173" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B174" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="D174" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B175" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="D176" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="D177" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="D178" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="D179" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B180" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="D180" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="D181" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B182" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="D182" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="D183" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B184" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="D184" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="D185" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B186" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="D186" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B187" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="D187" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="D188" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B189" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="D189" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="D190" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="D191" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="D192" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B193" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="D193" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B194" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="D194" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="D195" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B196" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="D196" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="D197" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="D198" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="D199" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B200" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="D200" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B201" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="D201" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="D202" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B203" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="D203" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B204" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="D204" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="D205" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="D206" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="D207" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="D208" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="D209" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B210" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="D210" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B211" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="D211" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="D212" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B213" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="D213" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B214" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="D214" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="D215" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="D216" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="C217" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="D217" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="D218" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="D219" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="D220" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="D221" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="D222" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="C223" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="D223" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="D224" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="D225" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="D226" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="C227" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="D227" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="D228" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="C229" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="D229" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="C230" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="D230" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="C231" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="D231" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="C232" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="D232" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="D233" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="C234" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="D234" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="C235" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="D235" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="C236" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C236" s="21" t="s">
+      <c r="D236" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="C237" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="D237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="C238" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="D238" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="C239" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="D239" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="C240" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="D240" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="C241" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="D241" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="C242" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="D242" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="C243" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="D243" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="C244" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="D244" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="C245" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="D245" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="C246" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="D246" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="D247" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="C248" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="D248" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="C249" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C249" s="21" t="s">
+      <c r="D249" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="C250" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="D250" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="C251" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="D251" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="C252" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="D252" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="D253" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="C254" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="D254" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="C255" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="D255" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="C256" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="D256" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="C257" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="D257" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="C258" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="D258" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="C259" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="D259" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="C260" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="D260" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="C261" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="D261" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="C262" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="D262" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="D263" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="C264" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="D264" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="C265" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C265" s="21" t="s">
+      <c r="D265" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="C266" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="D266" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="C267" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="D267" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="C268" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="D268" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="C269" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="D269" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="C270" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="D270" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C271" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="D271" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="C272" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="D272" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="C273" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="D273" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="C274" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="D274" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="C275" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="D275" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="C276" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="D276" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="C277" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="D277" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="C278" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="D278" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="C279" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="D279" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="C280" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="D280" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="C281" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="D281" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="C282" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="D282" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="C283" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="D283" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="C284" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="D284" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="C285" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="D285" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="C286" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="D286" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="C287" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="D287" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="C288" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="D288" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="C289" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="D289" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="C290" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="D290" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="C291" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="D291" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="C292" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="D292" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="C293" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="D293" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="C294" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="D294" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="C295" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="D295" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="C296" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="D296" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="D297" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="C298" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="D298" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="C299" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="D299" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B300" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="C300" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="D300" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="C301" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="D301" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="C302" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="D302" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="C303" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="D303" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="C304" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="D304" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="C305" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C305" s="4" t="s">
+      <c r="D305" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="C306" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="D306" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="C307" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="D307" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="C308" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C308" s="4" t="s">
+      <c r="D308" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="C309" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="D309" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="C310" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C310" s="4" t="s">
+      <c r="D310" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="C311" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C311" s="4" t="s">
+      <c r="D311" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="C312" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C312" s="4" t="s">
+      <c r="D312" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="C313" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C313" s="4" t="s">
+      <c r="D313" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="C314" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="D314" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="C315" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="D315" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="C316" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="D316" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="C317" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C317" s="4" t="s">
+      <c r="D317" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B318" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C318" s="13" t="s">
+      <c r="D318" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B319" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="C319" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C319" s="4" t="s">
+      <c r="D319" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="C320" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C320" s="21" t="s">
+      <c r="D320" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="C321" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="D321" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="C322" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C322" s="4" t="s">
+      <c r="D322" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="C323" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="D323" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="C324" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C324" s="4" t="s">
+      <c r="D324" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="C325" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C325" s="4" t="s">
+      <c r="D325" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="C326" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="D326" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="C327" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C327" s="4" t="s">
+      <c r="D327" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="C328" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C328" s="4" t="s">
+      <c r="D328" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="C329" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="D329" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="C330" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="D330" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="C331" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C331" s="13" t="s">
+      <c r="D331" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="C332" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="D332" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B333" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="C333" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="D333" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B334" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="C334" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C334" s="4" t="s">
+      <c r="D334" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B335" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="C335" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="D335" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="C336" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="D336" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="C337" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="D337" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B338" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="C338" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="D338" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="C339" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C339" s="4" t="s">
+      <c r="D339" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="C340" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="D340" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="C341" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C341" s="4" t="s">
+      <c r="D341" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="C342" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C342" s="4" t="s">
+      <c r="D342" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="C343" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="C343" s="4" t="s">
+      <c r="D343" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="C344" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C344" s="4" t="s">
+      <c r="D344" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="C345" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="D345" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="C346" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C346" s="4" t="s">
+      <c r="D346" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="C347" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C347" s="4" t="s">
+      <c r="D347" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="C348" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C348" s="4" t="s">
+      <c r="D348" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="C349" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="D349" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="C350" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C350" s="4" t="s">
+      <c r="D350" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="C351" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C351" s="4" t="s">
+      <c r="D351" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="C352" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C352" s="4" t="s">
+      <c r="D352" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="C353" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C353" s="4" t="s">
+      <c r="D353" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="C354" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C354" s="4" t="s">
+      <c r="D354" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B355" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="C355" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C355" s="4" t="s">
+      <c r="D355" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="C356" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C356" s="4" t="s">
+      <c r="D356" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="C357" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C357" s="4" t="s">
+      <c r="D357" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="C358" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C358" s="4" t="s">
+      <c r="D358" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B359" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="C359" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C359" s="4" t="s">
+      <c r="D359" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="C360" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C360" s="4" t="s">
+      <c r="D360" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="C361" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C361" s="4" t="s">
+      <c r="D361" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="C362" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C362" s="13" t="s">
+      <c r="D362" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="C363" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="D363" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B364" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="C364" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C364" s="21" t="s">
+      <c r="D364" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B365" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="C365" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C365" s="4" t="s">
+      <c r="D365" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="C366" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C366" s="4" t="s">
+      <c r="D366" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="C367" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C367" s="4" t="s">
+      <c r="D367" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="C368" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C368" s="4" t="s">
+      <c r="D368" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B369" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B369" s="4" t="s">
+      <c r="C369" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C369" s="4" t="s">
+      <c r="D369" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B370" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B370" s="4" t="s">
+      <c r="C370" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C370" s="4" t="s">
+      <c r="D370" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="C371" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C371" s="4" t="s">
+      <c r="D371" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B372" s="4" t="s">
+      <c r="C372" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C372" s="4" t="s">
+      <c r="D372" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="C373" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C373" s="4" t="s">
+      <c r="D373" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="C374" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C374" s="4" t="s">
+      <c r="D374" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B375" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="C375" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C375" s="4" t="s">
+      <c r="D375" s="4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="C376" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C376" s="4" t="s">
+      <c r="D376" s="4" t="s">
         <v>301</v>
       </c>
     </row>
